--- a/Data/g11.2.xlsx
+++ b/Data/g11.2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -650,6 +650,25 @@
         <v>0.594050984179926</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>30.43286982309651</v>
+      </c>
+      <c r="C12" t="n">
+        <v>35.8296032195119</v>
+      </c>
+      <c r="D12" t="n">
+        <v>7.220022021846247</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6464340523562906</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/g11.2.xlsx
+++ b/Data/g11.2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,209 +463,228 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33.30256413027155</v>
+        <v>33.13265702179427</v>
       </c>
       <c r="C2" t="n">
-        <v>38.40980042528029</v>
+        <v>38.03288321459287</v>
       </c>
       <c r="D2" t="n">
-        <v>8.780408261626048</v>
+        <v>8.998264259685804</v>
       </c>
       <c r="E2" t="n">
-        <v>2.815381916323379</v>
+        <v>2.893854143250651</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.70020044619332</v>
+        <v>33.30256413027155</v>
       </c>
       <c r="C3" t="n">
-        <v>38.62398189864196</v>
+        <v>38.40980042528029</v>
       </c>
       <c r="D3" t="n">
-        <v>8.592832595487799</v>
+        <v>8.780408261626048</v>
       </c>
       <c r="E3" t="n">
-        <v>0.465833000313336</v>
+        <v>2.815381916323379</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32.99726327011429</v>
+        <v>33.70020044619332</v>
       </c>
       <c r="C4" t="n">
-        <v>40.41635631629379</v>
+        <v>38.62398189864196</v>
       </c>
       <c r="D4" t="n">
-        <v>8.628044179715081</v>
+        <v>8.592832595487799</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3420856114631824</v>
+        <v>0.465833000313336</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34.41800636450252</v>
+        <v>32.99726327011429</v>
       </c>
       <c r="C5" t="n">
-        <v>38.60132524723581</v>
+        <v>40.41635631629379</v>
       </c>
       <c r="D5" t="n">
-        <v>8.509394104917943</v>
+        <v>8.628044179715081</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3369930112349999</v>
+        <v>0.3420856114631824</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34.10499181545859</v>
+        <v>34.41800636450252</v>
       </c>
       <c r="C6" t="n">
-        <v>38.47793652224814</v>
+        <v>38.60132524723581</v>
       </c>
       <c r="D6" t="n">
-        <v>8.733612418102531</v>
+        <v>8.509394104917943</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3651337222138254</v>
+        <v>0.3369930112349999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31.53573904761734</v>
+        <v>34.10499181545859</v>
       </c>
       <c r="C7" t="n">
-        <v>35.05665274219061</v>
+        <v>38.47793652224814</v>
       </c>
       <c r="D7" t="n">
-        <v>7.453942520457852</v>
+        <v>8.733612418102531</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8317707940957115</v>
+        <v>0.3651337222138254</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28.64749659508967</v>
+        <v>31.53573904761734</v>
       </c>
       <c r="C8" t="n">
-        <v>30.23621959043452</v>
+        <v>35.05665274219061</v>
       </c>
       <c r="D8" t="n">
-        <v>6.48034220502071</v>
+        <v>7.453942520457852</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6297106180283834</v>
+        <v>0.8317707940957115</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>32.54441505010238</v>
+        <v>28.64749659508967</v>
       </c>
       <c r="C9" t="n">
-        <v>35.89913233239746</v>
+        <v>30.23621959043452</v>
       </c>
       <c r="D9" t="n">
-        <v>7.510645370398351</v>
+        <v>6.48034220502071</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6973967451497352</v>
+        <v>0.6297106180283834</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31.89809737057823</v>
+        <v>32.54441505010238</v>
       </c>
       <c r="C10" t="n">
-        <v>38.80317626710261</v>
+        <v>35.89913233239746</v>
       </c>
       <c r="D10" t="n">
-        <v>8.060785307354683</v>
+        <v>7.510645370398351</v>
       </c>
       <c r="E10" t="n">
-        <v>1.002857480636129</v>
+        <v>0.6973967451497352</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>33.12859512342159</v>
+        <v>31.89809737057823</v>
       </c>
       <c r="C11" t="n">
-        <v>37.38146244467503</v>
+        <v>38.80317626710261</v>
       </c>
       <c r="D11" t="n">
-        <v>7.97628996190259</v>
+        <v>8.060785307354683</v>
       </c>
       <c r="E11" t="n">
-        <v>0.594050984179926</v>
+        <v>1.002857480636129</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>33.12859512342159</v>
+      </c>
+      <c r="C12" t="n">
+        <v>37.38146244467503</v>
+      </c>
+      <c r="D12" t="n">
+        <v>7.97628996190259</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.594050984179926</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B13" t="n">
         <v>30.43286982309651</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C13" t="n">
         <v>35.8296032195119</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D13" t="n">
         <v>7.220022021846247</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E13" t="n">
         <v>0.6464340523562906</v>
       </c>
     </row>
